--- a/results/case1/sensitivity_case1_cut_off.xlsx
+++ b/results/case1/sensitivity_case1_cut_off.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.02436415202179783</v>
+        <v>0.0781217200470586</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01459661021395471</v>
+        <v>-0.04680287234090521</v>
       </c>
       <c r="H2" t="n">
-        <v>0.056712978793433</v>
+        <v>0.09503112138823344</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0339768543875198</v>
+        <v>-0.05693332712166809</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01788170811569246</v>
+        <v>0.07148712122193057</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.01071296563455013</v>
+        <v>-0.0428280714576357</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1183054269638939</v>
+        <v>0.09249114913347377</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.07087700823909217</v>
+        <v>-0.05541162487141847</v>
       </c>
     </row>
     <row r="3">
@@ -597,80 +597,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-0.1628158283041986</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.2331898914337296</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G3" t="n">
+        <v>-0.2280467409077837</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I3" t="n">
+        <v>-0.2774073267248116</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" t="n">
+        <v>-0.1168266730077212</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M3" t="n">
+        <v>-0.1911034982141304</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O3" t="n">
+        <v>-0.1792059156558442</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>-0.2318594005075217</v>
       </c>
     </row>
     <row r="4">
@@ -685,7 +669,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.07594823688727774</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -693,7 +677,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.04764863843017978</v>
+        <v>-0.03930250011237078</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -721,7 +705,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.05940594059405933</v>
+        <v>-0.04434561041911266</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -729,7 +713,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-0.01400674000348034</v>
+        <v>-0.02102005311177816</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -764,7 +748,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.2387640651914763</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -772,19 +756,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.04764863843017978</v>
+        <v>-0.2724923915461004</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02436415202179783</v>
+        <v>0.0781217200470586</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01459661021395471</v>
+        <v>-0.2748496132486889</v>
       </c>
       <c r="H5" t="n">
-        <v>0.056712978793433</v>
+        <v>0.09503112138823344</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0339768543875198</v>
+        <v>-0.3343406538464797</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -792,7 +776,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.05940594059405933</v>
+        <v>-0.1611722834268338</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -800,19 +784,19 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.01400674000348034</v>
+        <v>-0.2121235513259085</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01788170811569246</v>
+        <v>0.07148712122193057</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01071296563455013</v>
+        <v>-0.2220339871134799</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1183054269638939</v>
+        <v>0.09249114913347377</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.07087700823909217</v>
+        <v>-0.2872710253789402</v>
       </c>
     </row>
   </sheetData>
